--- a/data/LCIA_EF30-Carrying-capacities.xlsx
+++ b/data/LCIA_EF30-Carrying-capacities.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56AF3D5-4236-4260-ACC4-A2563B042B60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F797BB-15DD-4FF5-850E-38AB5B1A8A68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11717" windowHeight="4140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11717" windowHeight="4140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carrying_capacities" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
   <si>
     <t>Remaining CO2 emissions budget 2020-2100</t>
   </si>
@@ -746,6 +746,18 @@
       </rPr>
       <t>Glob. Environ. Change 60, 102017</t>
     </r>
+  </si>
+  <si>
+    <t>Average carbon footprint digital content consumption</t>
+  </si>
+  <si>
+    <t>kg CO2eq/capita/year</t>
+  </si>
+  <si>
+    <t>Gt CO2eq/year</t>
+  </si>
+  <si>
+    <t>Internet users</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1075,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1315,6 +1327,27 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1330,9 +1363,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1342,24 +1372,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1372,6 +1384,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4295,34 +4308,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="114" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="112" t="s">
         <v>107</v>
       </c>
       <c r="C1" s="112"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="111" t="s">
+      <c r="D1" s="113"/>
+      <c r="E1" s="118" t="s">
         <v>119</v>
       </c>
       <c r="F1" s="112"/>
       <c r="G1" s="112"/>
       <c r="H1" s="112"/>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
       <c r="N1" s="95"/>
-      <c r="O1" s="118" t="s">
+      <c r="O1" s="109" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="108"/>
+      <c r="A2" s="115"/>
       <c r="B2" s="27" t="s">
         <v>110</v>
       </c>
@@ -4362,7 +4375,7 @@
       <c r="N2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="119"/>
+      <c r="O2" s="110"/>
     </row>
     <row r="3" spans="1:19" s="36" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="33" t="s">
@@ -4378,19 +4391,19 @@
       <c r="D3" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="113">
+      <c r="E3" s="119">
         <f>Population_UP!B14*1000</f>
         <v>7794798729</v>
       </c>
-      <c r="F3" s="113">
+      <c r="F3" s="119">
         <f>Population_UP!B24*1000</f>
         <v>8548487370.999999</v>
       </c>
-      <c r="G3" s="113">
+      <c r="G3" s="119">
         <f>Population_UP!B34*1000</f>
         <v>9198847382</v>
       </c>
-      <c r="H3" s="113">
+      <c r="H3" s="119">
         <f>Population_UP!B44*1000</f>
         <v>9735033900</v>
       </c>
@@ -4433,10 +4446,10 @@
       <c r="D4" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="86">
         <v>145</v>
       </c>
@@ -4476,10 +4489,10 @@
       <c r="D5" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="66">
         <v>0.84</v>
       </c>
@@ -4502,7 +4515,7 @@
       <c r="N5" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="116" t="s">
+      <c r="O5" s="107" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4519,10 +4532,10 @@
       <c r="D6" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="64">
         <v>29</v>
       </c>
@@ -4545,7 +4558,7 @@
       <c r="N6" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="117"/>
+      <c r="O6" s="108"/>
     </row>
     <row r="7" spans="1:19" s="87" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A7" s="82" t="s">
@@ -4560,10 +4573,10 @@
       <c r="D7" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
       <c r="I7" s="86">
         <v>887</v>
       </c>
@@ -4605,10 +4618,10 @@
       <c r="D8" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
       <c r="I8" s="89">
         <v>58.8</v>
       </c>
@@ -4648,10 +4661,10 @@
       <c r="D9" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
       <c r="I9" s="67">
         <v>7.47E-5</v>
       </c>
@@ -4691,10 +4704,10 @@
       <c r="D10" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
       <c r="I10" s="67">
         <v>7.8E-2</v>
       </c>
@@ -4735,10 +4748,10 @@
       <c r="D11" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
       <c r="I11" s="64">
         <v>19000</v>
       </c>
@@ -4778,10 +4791,10 @@
       <c r="D12" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
       <c r="I12" s="67">
         <v>1.3899999999999999E-4</v>
       </c>
@@ -4804,7 +4817,7 @@
       <c r="N12" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="120" t="s">
+      <c r="O12" s="111" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4821,10 +4834,10 @@
       <c r="D13" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
       <c r="I13" s="67">
         <v>5.9299999999999999E-4</v>
       </c>
@@ -4847,7 +4860,7 @@
       <c r="N13" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="120"/>
+      <c r="O13" s="111"/>
     </row>
     <row r="14" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="33" t="s">
@@ -4862,10 +4875,10 @@
       <c r="D14" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="68">
         <v>76200</v>
       </c>
@@ -4888,7 +4901,7 @@
       <c r="N14" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O14" s="120"/>
+      <c r="O14" s="111"/>
     </row>
     <row r="15" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="33" t="s">
@@ -4904,10 +4917,10 @@
       <c r="D15" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
       <c r="I15" s="64">
         <v>32400</v>
       </c>
@@ -4930,7 +4943,7 @@
       <c r="N15" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="O15" s="116" t="s">
+      <c r="O15" s="107" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4948,10 +4961,10 @@
       <c r="D16" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
       <c r="I16" s="67">
         <v>3.1800000000000002E-2</v>
       </c>
@@ -4974,7 +4987,7 @@
       <c r="N16" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="117"/>
+      <c r="O16" s="108"/>
     </row>
     <row r="17" spans="1:16" s="87" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="82" t="s">
@@ -4989,10 +5002,10 @@
       <c r="D17" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
       <c r="I17" s="86">
         <v>1840</v>
       </c>
@@ -5032,10 +5045,10 @@
       <c r="D18" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
       <c r="I18" s="64">
         <v>26300</v>
       </c>
@@ -5144,11 +5157,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="B1:D1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="E1:H1"/>
@@ -5156,6 +5164,11 @@
     <mergeCell ref="F3:F18"/>
     <mergeCell ref="G3:G18"/>
     <mergeCell ref="H3:H18"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8751,10 +8764,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DE4132-AE40-4182-9ACF-3EE88EB8B76A}">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8824,6 +8837,40 @@
       <c r="B7" s="6">
         <f>B6/B2</f>
         <v>1.1694915254237288E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9">
+        <v>230</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10">
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="126">
+        <f>B9*B10/1000000000000</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="6">
+        <f>B6/B11</f>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -8840,7 +8887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26553B49-7FE0-42FC-9FE6-19AD5E7A8422}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>

--- a/data/LCIA_EF30-Carrying-capacities.xlsx
+++ b/data/LCIA_EF30-Carrying-capacities.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F797BB-15DD-4FF5-850E-38AB5B1A8A68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D594D-6EE2-4414-B1A7-3844F89FC8C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11717" windowHeight="4140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11717" windowHeight="4140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carrying_capacities" sheetId="4" r:id="rId1"/>
     <sheet name="Carbon_budget_IPCC" sheetId="1" r:id="rId2"/>
-    <sheet name="Carbon_budget_literature" sheetId="3" r:id="rId3"/>
-    <sheet name="Population_UP" sheetId="2" r:id="rId4"/>
-    <sheet name="GWP_per_capita" sheetId="6" r:id="rId5"/>
-    <sheet name="References" sheetId="5" r:id="rId6"/>
+    <sheet name="Carbon_budget_IPCC_Import" sheetId="7" r:id="rId3"/>
+    <sheet name="Carbon_budget_literature" sheetId="3" r:id="rId4"/>
+    <sheet name="Population_UP" sheetId="2" r:id="rId5"/>
+    <sheet name="GWP_per_capita" sheetId="6" r:id="rId6"/>
+    <sheet name="References" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="160">
   <si>
     <t>Remaining CO2 emissions budget 2020-2100</t>
   </si>
@@ -758,6 +759,36 @@
   </si>
   <si>
     <t>Internet users</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>1.5 °C</t>
+  </si>
+  <si>
+    <t>1.7 °C</t>
+  </si>
+  <si>
+    <t>2.0 °C</t>
+  </si>
+  <si>
+    <t>units_carrying_capacity</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1327,6 +1358,13 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1384,7 +1422,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4283,11 +4320,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A927012-6564-4785-9614-C90A87831E70}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4308,34 +4345,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="118" t="s">
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="116" t="s">
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
       <c r="N1" s="95"/>
-      <c r="O1" s="109" t="s">
+      <c r="O1" s="112" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="115"/>
+      <c r="A2" s="118"/>
       <c r="B2" s="27" t="s">
         <v>110</v>
       </c>
@@ -4343,7 +4380,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>115</v>
@@ -4375,7 +4412,7 @@
       <c r="N2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="110"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:19" s="36" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="33" t="s">
@@ -4391,19 +4428,19 @@
       <c r="D3" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="119">
+      <c r="E3" s="122">
         <f>Population_UP!B14*1000</f>
         <v>7794798729</v>
       </c>
-      <c r="F3" s="119">
+      <c r="F3" s="122">
         <f>Population_UP!B24*1000</f>
         <v>8548487370.999999</v>
       </c>
-      <c r="G3" s="119">
+      <c r="G3" s="122">
         <f>Population_UP!B34*1000</f>
         <v>9198847382</v>
       </c>
-      <c r="H3" s="119">
+      <c r="H3" s="122">
         <f>Population_UP!B44*1000</f>
         <v>9735033900</v>
       </c>
@@ -4446,10 +4483,10 @@
       <c r="D4" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
       <c r="I4" s="86">
         <v>145</v>
       </c>
@@ -4489,10 +4526,10 @@
       <c r="D5" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="66">
         <v>0.84</v>
       </c>
@@ -4515,7 +4552,7 @@
       <c r="N5" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="107" t="s">
+      <c r="O5" s="110" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4532,10 +4569,10 @@
       <c r="D6" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
       <c r="I6" s="64">
         <v>29</v>
       </c>
@@ -4558,7 +4595,7 @@
       <c r="N6" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="108"/>
+      <c r="O6" s="111"/>
     </row>
     <row r="7" spans="1:19" s="87" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A7" s="82" t="s">
@@ -4573,10 +4610,10 @@
       <c r="D7" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
       <c r="I7" s="86">
         <v>887</v>
       </c>
@@ -4618,10 +4655,10 @@
       <c r="D8" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
       <c r="I8" s="89">
         <v>58.8</v>
       </c>
@@ -4661,10 +4698,10 @@
       <c r="D9" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
       <c r="I9" s="67">
         <v>7.47E-5</v>
       </c>
@@ -4704,10 +4741,10 @@
       <c r="D10" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
       <c r="I10" s="67">
         <v>7.8E-2</v>
       </c>
@@ -4748,10 +4785,10 @@
       <c r="D11" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
       <c r="I11" s="64">
         <v>19000</v>
       </c>
@@ -4791,10 +4828,10 @@
       <c r="D12" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
       <c r="I12" s="67">
         <v>1.3899999999999999E-4</v>
       </c>
@@ -4817,7 +4854,7 @@
       <c r="N12" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="111" t="s">
+      <c r="O12" s="114" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4834,10 +4871,10 @@
       <c r="D13" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
       <c r="I13" s="67">
         <v>5.9299999999999999E-4</v>
       </c>
@@ -4860,7 +4897,7 @@
       <c r="N13" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="111"/>
+      <c r="O13" s="114"/>
     </row>
     <row r="14" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="33" t="s">
@@ -4875,10 +4912,10 @@
       <c r="D14" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
       <c r="I14" s="68">
         <v>76200</v>
       </c>
@@ -4901,7 +4938,7 @@
       <c r="N14" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="O14" s="111"/>
+      <c r="O14" s="114"/>
     </row>
     <row r="15" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="33" t="s">
@@ -4917,10 +4954,10 @@
       <c r="D15" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
       <c r="I15" s="64">
         <v>32400</v>
       </c>
@@ -4943,7 +4980,7 @@
       <c r="N15" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="O15" s="107" t="s">
+      <c r="O15" s="110" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4961,10 +4998,10 @@
       <c r="D16" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
       <c r="I16" s="67">
         <v>3.1800000000000002E-2</v>
       </c>
@@ -4987,7 +5024,7 @@
       <c r="N16" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="108"/>
+      <c r="O16" s="111"/>
     </row>
     <row r="17" spans="1:16" s="87" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="82" t="s">
@@ -5002,10 +5039,10 @@
       <c r="D17" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="86">
         <v>1840</v>
       </c>
@@ -5045,10 +5082,10 @@
       <c r="D18" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
       <c r="I18" s="64">
         <v>26300</v>
       </c>
@@ -5179,8 +5216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5229,7 +5266,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="125" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7">
@@ -5252,7 +5289,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="122"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="7">
         <v>1.7</v>
       </c>
@@ -5273,7 +5310,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="122"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -5299,11 +5336,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="123">
+      <c r="B9" s="126">
         <f>SUM(Population_UP!B14:B94)*1000</f>
         <v>799098891918.00012</v>
       </c>
-      <c r="C9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -5320,13 +5357,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12" s="12"/>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="12"/>
@@ -5347,7 +5384,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="128" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="14">
@@ -5375,7 +5412,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="125"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="14">
         <v>1.7</v>
       </c>
@@ -5401,7 +5438,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="125"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="16">
         <v>2</v>
       </c>
@@ -7540,6 +7577,117 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A9A738-CCEF-4418-A9CF-E4B0CF856BD0}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="101"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="17">
+        <f>Carbon_budget_IPCC!C14</f>
+        <v>1126.2686121861798</v>
+      </c>
+      <c r="C2" s="17">
+        <f>Carbon_budget_IPCC!D14</f>
+        <v>813.41621991224088</v>
+      </c>
+      <c r="D2" s="17">
+        <f>Carbon_budget_IPCC!E14</f>
+        <v>625.70478454787758</v>
+      </c>
+      <c r="E2" s="17">
+        <f>Carbon_budget_IPCC!F14</f>
+        <v>500.56382763830209</v>
+      </c>
+      <c r="F2" s="17">
+        <f>Carbon_budget_IPCC!G14</f>
+        <v>375.42287072872654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="17">
+        <f>Carbon_budget_IPCC!C15</f>
+        <v>1814.543875188845</v>
+      </c>
+      <c r="C3" s="17">
+        <f>Carbon_budget_IPCC!D15</f>
+        <v>1313.9800475505431</v>
+      </c>
+      <c r="D3" s="17">
+        <f>Carbon_budget_IPCC!E15</f>
+        <v>1063.6981337313919</v>
+      </c>
+      <c r="E3" s="17">
+        <f>Carbon_budget_IPCC!F15</f>
+        <v>875.98669836702868</v>
+      </c>
+      <c r="F3" s="17">
+        <f>Carbon_budget_IPCC!G15</f>
+        <v>688.27526300266538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="17">
+        <f>Carbon_budget_IPCC!C16</f>
+        <v>2878.2420089202369</v>
+      </c>
+      <c r="C4" s="17">
+        <f>Carbon_budget_IPCC!D16</f>
+        <v>2127.3962674627837</v>
+      </c>
+      <c r="D4" s="17">
+        <f>Carbon_budget_IPCC!E16</f>
+        <v>1689.4029182792694</v>
+      </c>
+      <c r="E4" s="17">
+        <f>Carbon_budget_IPCC!F16</f>
+        <v>1439.1210044601185</v>
+      </c>
+      <c r="F4" s="17">
+        <f>Carbon_budget_IPCC!G16</f>
+        <v>1126.2686121861798</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42790602-87D3-4023-8197-1C443E441464}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -7992,7 +8140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE87351C-DBC9-4FC3-BECD-CE741E275B61}">
   <dimension ref="A1:D94"/>
   <sheetViews>
@@ -8762,12 +8910,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DE4132-AE40-4182-9ACF-3EE88EB8B76A}">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8844,10 +8992,14 @@
         <v>146</v>
       </c>
       <c r="B9">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
         <v>147</v>
+      </c>
+      <c r="D9" s="6">
+        <f>B9/B4</f>
+        <v>2.9415768578389869E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -8859,9 +9011,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="126">
+      <c r="B11" s="107">
         <f>B9*B10/1000000000000</f>
-        <v>1.1499999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="C11" t="s">
         <v>148</v>
@@ -8870,7 +9022,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" s="6">
         <f>B6/B11</f>
-        <v>0.6</v>
+        <v>0.61333333333333329</v>
       </c>
     </row>
   </sheetData>
@@ -8883,7 +9035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26553B49-7FE0-42FC-9FE6-19AD5E7A8422}">
   <dimension ref="A1:A10"/>
   <sheetViews>

--- a/data/LCIA_EF30-Carrying-capacities.xlsx
+++ b/data/LCIA_EF30-Carrying-capacities.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D594D-6EE2-4414-B1A7-3844F89FC8C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C828F1-8966-40E4-B896-1B7816FAB8FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11717" windowHeight="4140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11717" windowHeight="4140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carrying_capacities" sheetId="4" r:id="rId1"/>
@@ -4320,11 +4320,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A927012-6564-4785-9614-C90A87831E70}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5216,8 +5216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7691,8 +7691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42790602-87D3-4023-8197-1C443E441464}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8092,7 +8092,7 @@
         <v>522</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="32" t="s">
         <v>132</v>
